--- a/tests/test-files/test-file.xlsx
+++ b/tests/test-files/test-file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85FDDA-6499-418E-8232-B31038D13E5C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2903D7-5007-4E4A-A5DE-F7D94C02933F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Row 1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Row 4</t>
+  </si>
+  <si>
+    <t>Datetime Column</t>
   </si>
 </sst>
 </file>
@@ -76,10 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,18 +364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -381,8 +386,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
         <v>43393</v>
@@ -393,8 +401,12 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="3">
+        <v>43393.513888888891</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
         <v>43393</v>
@@ -405,8 +417,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="3">
+        <v>43393.513888888891</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A5" ca="1" si="0">TODAY()</f>
         <v>43393</v>
@@ -417,8 +432,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="3">
+        <v>43393.513888888891</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>43393</v>
@@ -428,6 +446,9 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43393.513888888891</v>
       </c>
     </row>
   </sheetData>
